--- a/error_threshold/若羌三期远景故障阈值.xlsx
+++ b/error_threshold/若羌三期远景故障阈值.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="若羌三期远景故障阈值" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -89,12 +76,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,17 +93,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,114 +215,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,25 +246,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,24 +420,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,108 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,35 +440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +460,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +488,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,204 +542,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -948,7 +939,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -957,7 +948,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1238,17 +1229,17 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.7256637168142" customWidth="1"/>
-    <col min="2" max="2" width="15.0619469026549" customWidth="1"/>
-    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="11.7256637168142" customWidth="1"/>
-    <col min="5" max="5" width="17.3274336283186" customWidth="1"/>
+    <col min="1" max="1" width="30.725" customWidth="1"/>
+    <col min="2" max="2" width="15.0583333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.725" customWidth="1"/>
+    <col min="5" max="5" width="17.325" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1272,16 +1263,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>65</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>70</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>55</v>
       </c>
     </row>
@@ -1289,16 +1280,16 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>65</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>70</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>55</v>
       </c>
     </row>
@@ -1306,16 +1297,16 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>65</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>70</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>55</v>
       </c>
     </row>
@@ -1323,16 +1314,16 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1">
         <v>90</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>95</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>75</v>
       </c>
     </row>
@@ -1340,16 +1331,16 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1">
         <v>90</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>95</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>75</v>
       </c>
     </row>
@@ -1357,16 +1348,16 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>70</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>75</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>80</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>65</v>
       </c>
     </row>
@@ -1374,16 +1365,16 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1">
         <v>90</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>95</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>75</v>
       </c>
     </row>
@@ -1391,16 +1382,16 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1">
         <v>90</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>95</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>75</v>
       </c>
     </row>
@@ -1408,16 +1399,16 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>90</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>100</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>85</v>
       </c>
     </row>
@@ -1425,16 +1416,16 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>90</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>95</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>100</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>85</v>
       </c>
     </row>
@@ -1442,13 +1433,14 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="1">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>58</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>45</v>
       </c>
     </row>
@@ -1456,16 +1448,16 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>140</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>145</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>155</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>135</v>
       </c>
     </row>
@@ -1473,16 +1465,16 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>140</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>145</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>155</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>135</v>
       </c>
     </row>
@@ -1490,16 +1482,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>140</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>145</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>155</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>135</v>
       </c>
     </row>

--- a/error_threshold/若羌三期远景故障阈值.xlsx
+++ b/error_threshold/若羌三期远景故障阈值.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="若羌三期远景故障阈值" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>scene_name</t>
   </si>
@@ -29,12 +42,6 @@
   </si>
   <si>
     <t>abnormal_thre_k</t>
-  </si>
-  <si>
-    <t>主轴承内圈温度</t>
-  </si>
-  <si>
-    <t>主轴承外圈温度</t>
   </si>
   <si>
     <t>主轴承温度</t>
@@ -76,18 +83,65 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -102,7 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -110,6 +164,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,121 +210,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +253,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,169 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,11 +447,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +491,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,45 +534,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -542,148 +549,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -697,52 +704,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -939,7 +946,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -948,7 +955,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1227,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1264,11 +1271,9 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>60</v>
-      </c>
-      <c r="C2" s="1">
         <v>65</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>70</v>
       </c>
@@ -1281,16 +1286,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1">
-        <v>65</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1298,16 +1301,14 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>65</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1315,16 +1316,14 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>85</v>
-      </c>
-      <c r="C5" s="1">
-        <v>90</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1332,11 +1331,9 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>85</v>
-      </c>
-      <c r="C6" s="1">
         <v>90</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>95</v>
       </c>
@@ -1349,16 +1346,14 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1">
         <v>75</v>
-      </c>
-      <c r="D7" s="1">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1366,16 +1361,14 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>110</v>
+      </c>
+      <c r="E8" s="1">
         <v>85</v>
-      </c>
-      <c r="C8" s="1">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1383,16 +1376,14 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>110</v>
+      </c>
+      <c r="E9" s="1">
         <v>85</v>
-      </c>
-      <c r="C9" s="1">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1">
-        <v>95</v>
-      </c>
-      <c r="E9" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1400,16 +1391,14 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>90</v>
-      </c>
-      <c r="C10" s="1">
-        <v>95</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1417,16 +1406,14 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1">
-        <v>95</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1434,14 +1421,14 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1449,49 +1436,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>140</v>
-      </c>
-      <c r="C13" s="1">
         <v>145</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>155</v>
       </c>
       <c r="E13" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>140</v>
-      </c>
-      <c r="C14" s="1">
-        <v>145</v>
-      </c>
-      <c r="D14" s="1">
-        <v>155</v>
-      </c>
-      <c r="E14" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
-        <v>140</v>
-      </c>
-      <c r="C15" s="1">
-        <v>145</v>
-      </c>
-      <c r="D15" s="1">
-        <v>155</v>
-      </c>
-      <c r="E15" s="1">
         <v>135</v>
       </c>
     </row>

--- a/error_threshold/若羌三期远景故障阈值.xlsx
+++ b/error_threshold/若羌三期远景故障阈值.xlsx
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1271,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
@@ -1286,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -1331,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -1361,11 +1361,11 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
         <v>85</v>
@@ -1376,11 +1376,11 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>85</v>
@@ -1391,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1406,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -1421,7 +1421,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1436,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
